--- a/Data/Jose/CV Analysis/Peak Information/Pb2.xlsx
+++ b/Data/Jose/CV Analysis/Peak Information/Pb2.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,8 @@
     <col width="32" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="32" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="32" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,23 +451,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 2 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 2 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -480,240 +482,314 @@
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 2 Potential (V)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 2 Current (uAmps)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v/>
+        <v>0.171</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v/>
+        <v>6.365156116970516</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.27</v>
+        <v>0.404</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.699293168112551</v>
+        <v>6.67722232173661</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
-        <v>0.134</v>
+        <v>0.264</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-12.33098455689135</v>
+        <v>10.30850908747874</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>13.06226489841234</v>
+      </c>
+      <c r="M2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.407</v>
+        <v>0.174</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>6.710887129439187</v>
+        <v>7.157806592893127</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v/>
+        <v>0.407</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v/>
+        <v>6.939339085078261</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v>0.132</v>
+        <v>0.266</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-12.86361713271205</v>
+        <v>10.29902397991773</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>13.70478696903538</v>
+      </c>
+      <c r="M3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.407</v>
+        <v>0.176</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>6.901317448328689</v>
+        <v>7.624770252285581</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v/>
+        <v>0.406</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v/>
+        <v>6.92458097197721</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v>0.131</v>
+        <v>0.267</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-13.24996051802442</v>
+        <v>10.2206179636905</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>14.06483828460831</v>
+      </c>
+      <c r="M4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.407</v>
+        <v>0.177</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7.057812758527186</v>
+        <v>8.00062696526062</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v/>
+        <v>0.406</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v/>
+        <v>7.057947254510812</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>0.131</v>
+        <v>0.269</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-13.50736523656125</v>
+        <v>10.22409891781956</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>14.46759847046203</v>
+      </c>
+      <c r="M5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.408</v>
+        <v>0.178</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.176688747813715</v>
+        <v>8.28126292540346</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v/>
+        <v>0.408</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v/>
+        <v>7.155594277120361</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-13.69786646453938</v>
+        <v>10.07976968161322</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>14.58636443580444</v>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.408</v>
+        <v>0.179</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7.264365852199465</v>
+        <v>8.526782691183136</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v/>
+        <v>0.406</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v/>
+        <v>7.30019656443329</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>0.13</v>
+        <v>0.271</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-13.72103848458882</v>
+        <v>9.914559111653366</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>14.63178026944296</v>
+      </c>
+      <c r="M7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.408</v>
+        <v>0.18</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7.446402001022502</v>
+        <v>8.730474678281455</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v/>
+        <v>0.408</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v/>
+        <v>7.431918927348459</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>0.128</v>
+        <v>0.272</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-13.76367076663944</v>
+        <v>9.821285632062889</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>14.77154362458934</v>
+      </c>
+      <c r="M8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.408</v>
+        <v>0.181</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.517577647532407</v>
+        <v>8.878034659691396</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v/>
+        <v>0.407</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v/>
+        <v>7.476055823010046</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>0.128</v>
+        <v>0.273</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-13.78849507573193</v>
+        <v>9.645355186942377</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>14.7331293947661</v>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.408</v>
+        <v>0.181</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.697526914778172</v>
+        <v>9.028762693592917</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v/>
+        <v>0.407</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v/>
+        <v>7.648315583937749</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="n">
-        <v>0.128</v>
+        <v>0.274</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-13.77543761329562</v>
+        <v>9.562548941972919</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>14.84453293716989</v>
+      </c>
+      <c r="M10" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Jose/CV Analysis/Peak Information/Pb2.xlsx
+++ b/Data/Jose/CV Analysis/Peak Information/Pb2.xlsx
@@ -502,28 +502,28 @@
         <v>0.171</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6.365156116970516</v>
+        <v>6.386862667202948</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.404</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.67722232173661</v>
+        <v>6.73550103550233</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
         <v>0.264</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>10.30850908747874</v>
+        <v>10.60294786284157</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="n">
         <v>0.123</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>13.06226489841234</v>
+        <v>13.50023395894152</v>
       </c>
       <c r="M2" s="2" t="inlineStr"/>
     </row>
@@ -535,28 +535,28 @@
         <v>0.174</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7.157806592893127</v>
+        <v>7.152628222705511</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.407</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.939339085078261</v>
+        <v>6.925863362880322</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
         <v>0.266</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>10.29902397991773</v>
+        <v>10.71577513680015</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="n">
         <v>0.123</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>13.70478696903538</v>
+        <v>14.32904626170331</v>
       </c>
       <c r="M3" s="2" t="inlineStr"/>
     </row>
@@ -568,28 +568,28 @@
         <v>0.176</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7.624770252285581</v>
+        <v>7.695724873102381</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.406</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.92458097197721</v>
+        <v>7.109016493565632</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v>0.267</v>
+        <v>0.266</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>10.2206179636905</v>
+        <v>10.78431086901458</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>14.06483828460831</v>
+        <v>14.9117554385641</v>
       </c>
       <c r="M4" s="2" t="inlineStr"/>
     </row>
@@ -601,28 +601,28 @@
         <v>0.177</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8.00062696526062</v>
+        <v>8.048732552216226</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.406</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.057947254510812</v>
+        <v>7.182075959638374</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10.22409891781956</v>
+        <v>10.80645591317128</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>14.46759847046203</v>
+        <v>15.34748824745774</v>
       </c>
       <c r="M5" s="2" t="inlineStr"/>
     </row>
@@ -634,28 +634,28 @@
         <v>0.178</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>8.28126292540346</v>
+        <v>8.338070460526437</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.408</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.155594277120361</v>
+        <v>7.301975062314656</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="n">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>10.07976968161322</v>
+        <v>10.78311069908739</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>14.58636443580444</v>
+        <v>15.65365686910643</v>
       </c>
       <c r="M6" s="2" t="inlineStr"/>
     </row>
@@ -667,28 +667,28 @@
         <v>0.179</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.526782691183136</v>
+        <v>8.589187028365558</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v>0.406</v>
+        <v>0.408</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.30019656443329</v>
+        <v>7.460915882224946</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>0.271</v>
+        <v>0.27</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>9.914559111653366</v>
+        <v>10.67702284102315</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>14.63178026944296</v>
+        <v>15.79453346387609</v>
       </c>
       <c r="M7" s="2" t="inlineStr"/>
     </row>
@@ -700,28 +700,28 @@
         <v>0.18</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>8.730474678281455</v>
+        <v>8.783234677492118</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.408</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.431918927348459</v>
+        <v>7.565539685568609</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>9.821285632062889</v>
+        <v>10.56448757657032</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>14.77154362458934</v>
+        <v>15.90760998908312</v>
       </c>
       <c r="M8" s="2" t="inlineStr"/>
     </row>
@@ -733,28 +733,28 @@
         <v>0.181</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8.878034659691396</v>
+        <v>8.939423612476574</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.407</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.476055823010046</v>
+        <v>7.630868198054737</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>0.273</v>
+        <v>0.271</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>9.645355186942377</v>
+        <v>10.45576898228222</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>14.7331293947661</v>
+        <v>15.97729114648867</v>
       </c>
       <c r="M9" s="2" t="inlineStr"/>
     </row>
@@ -766,28 +766,28 @@
         <v>0.181</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>9.028762693592917</v>
+        <v>9.100010661246728</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.407</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.648315583937749</v>
+        <v>7.827063284573835</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="n">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>9.562548941972919</v>
+        <v>10.32965987492496</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>14.84453293716989</v>
+        <v>16.02433928104814</v>
       </c>
       <c r="M10" s="2" t="inlineStr"/>
     </row>
